--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3850015.57070835</v>
+        <v>3848127.989191948</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>274.1142758523306</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.45403149117925</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>37.06286729089747</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.1365194952145</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>41.11210535126121</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002175</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>245.5591000916434</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462297963</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.8791668113986</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500619</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065121</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>235.597564670955</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896927</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.0041688483412</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>21.85553884047296</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571489</v>
+        <v>1.599126004631971</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.295728843236</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>2057.295728843236</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1699.030030236486</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1313.241777638242</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>902.255872848634</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>484.2920647468209</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.295728843236</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1995.909162857192</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2604.68316186094</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2386.048494833003</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2386.048494833003</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2386.048494833003</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2386.048494833003</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2386.048494833003</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1995.909162857192</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1463.674302457628</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1463.674302457628</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1463.674302457628</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>1077.886049859384</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>666.900145069776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>248.9363369679629</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.140060718708</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.674302457628</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1463.674302457628</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,16 +5039,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5224,13 +5224,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
         <v>614.6238123952638</v>
@@ -5239,10 +5239,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1050.956765431391</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>796.2722772255036</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>506.8551071885429</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>278.8655562905255</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5516,22 +5516,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>167.8887746690279</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>316.9584588710877</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819381</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839208</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839208</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944151</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944151</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.7133084820794</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>117.800214899686</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>933.236668829393</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924325</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944151</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8299478944151</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N24" t="n">
-        <v>1632.773754790662</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>2302.237516093321</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>726.1584037733166</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>726.1584037733166</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>436.741233736356</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>208.7516828383387</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383387</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6233,37 +6233,37 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6291,31 +6291,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1124.115218311523</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1453.977845975556</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384083</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384083</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>199.2415044384083</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>563.7235867775518</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030874</v>
+        <v>604.5641438163783</v>
       </c>
       <c r="C31" t="n">
-        <v>565.4200295030874</v>
+        <v>491.3888261698423</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440239</v>
+        <v>397.0330520388774</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>397.0330520388774</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264621</v>
+        <v>305.9039698223378</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>193.4895134235293</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>98.83237025284342</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818933</v>
+        <v>902.6804289818937</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652468</v>
+        <v>730.4517433652471</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030874</v>
+        <v>730.4517433652471</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
@@ -6783,19 +6783,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6841,7 +6841,7 @@
         <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6923,49 +6923,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504512</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775518</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,19 +7637,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7658,19 +7658,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,19 +8529,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.7151863772039</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>5.100663089359642</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,22 +9951,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>285.1031356539336</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>32.9224866577558</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10431,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539328</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775577</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814711</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684485363</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.6782523069339</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136114</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.043755817925</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338615</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518771</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.63978772762236</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.61130416987116</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>71.5566775491823</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.61686283108288</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>659455.824498083</v>
+        <v>659455.8244980831</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147611</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
         <v>723403.7605147616</v>
       </c>
       <c r="G2" t="n">
+        <v>723403.7605147612</v>
+      </c>
+      <c r="H2" t="n">
         <v>723403.7605147613</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>723403.7605147611</v>
       </c>
-      <c r="I2" t="n">
-        <v>723403.7605147613</v>
-      </c>
       <c r="J2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887494</v>
+        <v>752620.9540887489</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244611</v>
       </c>
       <c r="N2" t="n">
+        <v>759463.6371244611</v>
+      </c>
+      <c r="O2" t="n">
         <v>759463.6371244612</v>
       </c>
-      <c r="O2" t="n">
-        <v>759463.6371244614</v>
-      </c>
       <c r="P2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244616</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284571</v>
       </c>
     </row>
     <row r="4">
@@ -26424,13 +26424,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="F4" t="n">
         <v>15045.66962143911</v>
       </c>
-      <c r="F4" t="n">
-        <v>15045.66962143914</v>
-      </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26439,7 +26439,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563565</v>
@@ -26448,10 +26448,10 @@
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
+        <v>37464.45686275957</v>
+      </c>
+      <c r="N4" t="n">
         <v>37464.45686275959</v>
-      </c>
-      <c r="N4" t="n">
-        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275957</v>
@@ -26470,46 +26470,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70138.27840471413</v>
+        <v>-70138.27840471445</v>
       </c>
       <c r="C6" t="n">
         <v>519829.6008098302</v>
       </c>
       <c r="D6" t="n">
-        <v>519829.6008098302</v>
+        <v>519829.6008098304</v>
       </c>
       <c r="E6" t="n">
-        <v>91210.72846770922</v>
+        <v>91113.26934173716</v>
       </c>
       <c r="F6" t="n">
-        <v>616370.7649446058</v>
+        <v>616273.3058186338</v>
       </c>
       <c r="G6" t="n">
-        <v>616370.7649446056</v>
+        <v>616273.3058186334</v>
       </c>
       <c r="H6" t="n">
-        <v>616370.7649446054</v>
+        <v>616273.3058186335</v>
       </c>
       <c r="I6" t="n">
-        <v>616370.7649446056</v>
+        <v>616273.3058186333</v>
       </c>
       <c r="J6" t="n">
-        <v>439947.5457520126</v>
+        <v>439850.0866260406</v>
       </c>
       <c r="K6" t="n">
-        <v>578619.8481200453</v>
+        <v>578601.3543821104</v>
       </c>
       <c r="L6" t="n">
-        <v>613941.1676408096</v>
+        <v>613941.1676408094</v>
       </c>
       <c r="M6" t="n">
-        <v>489483.0592078392</v>
+        <v>489483.0592078391</v>
       </c>
       <c r="N6" t="n">
+        <v>624284.0744416761</v>
+      </c>
+      <c r="O6" t="n">
         <v>624284.0744416763</v>
       </c>
-      <c r="O6" t="n">
-        <v>624284.0744416764</v>
-      </c>
       <c r="P6" t="n">
-        <v>580121.4691388304</v>
+        <v>580121.4691388309</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108354</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>49.80849691202656</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>111.9799311553899</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>137.3528455180741</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.5945811832545</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>282.8106674130959</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>71.38553859468891</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,7 +35978,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36212,13 +36212,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>254.358368045384</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>595.5275127043998</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>240.0159015892805</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>618.2977090519457</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>366.1170600557687</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405097</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958065</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>506.0379672345559</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
